--- a/apis/excelSheets/ultraSonic.xlsx
+++ b/apis/excelSheets/ultraSonic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="448">
   <si>
     <t>4/16/2023</t>
   </si>
@@ -404,6 +404,960 @@
   </si>
   <si>
     <t>7:20:42 PM</t>
+  </si>
+  <si>
+    <t>4/25/2023</t>
+  </si>
+  <si>
+    <t>10:36:34 AM</t>
+  </si>
+  <si>
+    <t>10:36:40 AM</t>
+  </si>
+  <si>
+    <t>10:36:45 AM</t>
+  </si>
+  <si>
+    <t>10:36:50 AM</t>
+  </si>
+  <si>
+    <t>10:36:55 AM</t>
+  </si>
+  <si>
+    <t>10:37:00 AM</t>
+  </si>
+  <si>
+    <t>10:37:06 AM</t>
+  </si>
+  <si>
+    <t>10:37:11 AM</t>
+  </si>
+  <si>
+    <t>10:40:50 AM</t>
+  </si>
+  <si>
+    <t>10:40:56 AM</t>
+  </si>
+  <si>
+    <t>10:41:01 AM</t>
+  </si>
+  <si>
+    <t>10:41:06 AM</t>
+  </si>
+  <si>
+    <t>10:42:08 AM</t>
+  </si>
+  <si>
+    <t>10:42:13 AM</t>
+  </si>
+  <si>
+    <t>10:42:18 AM</t>
+  </si>
+  <si>
+    <t>10:42:23 AM</t>
+  </si>
+  <si>
+    <t>10:42:29 AM</t>
+  </si>
+  <si>
+    <t>10:42:34 AM</t>
+  </si>
+  <si>
+    <t>10:42:50 AM</t>
+  </si>
+  <si>
+    <t>10:42:55 AM</t>
+  </si>
+  <si>
+    <t>10:43:01 AM</t>
+  </si>
+  <si>
+    <t>10:43:06 AM</t>
+  </si>
+  <si>
+    <t>10:43:11 AM</t>
+  </si>
+  <si>
+    <t>10:43:16 AM</t>
+  </si>
+  <si>
+    <t>10:43:21 AM</t>
+  </si>
+  <si>
+    <t>10:43:26 AM</t>
+  </si>
+  <si>
+    <t>10:43:32 AM</t>
+  </si>
+  <si>
+    <t>10:43:37 AM</t>
+  </si>
+  <si>
+    <t>10:43:43 AM</t>
+  </si>
+  <si>
+    <t>10:43:48 AM</t>
+  </si>
+  <si>
+    <t>10:43:53 AM</t>
+  </si>
+  <si>
+    <t>10:43:59 AM</t>
+  </si>
+  <si>
+    <t>10:44:04 AM</t>
+  </si>
+  <si>
+    <t>10:44:10 AM</t>
+  </si>
+  <si>
+    <t>10:44:15 AM</t>
+  </si>
+  <si>
+    <t>10:44:20 AM</t>
+  </si>
+  <si>
+    <t>10:44:25 AM</t>
+  </si>
+  <si>
+    <t>10:44:31 AM</t>
+  </si>
+  <si>
+    <t>10:44:36 AM</t>
+  </si>
+  <si>
+    <t>10:44:41 AM</t>
+  </si>
+  <si>
+    <t>10:44:46 AM</t>
+  </si>
+  <si>
+    <t>10:44:51 AM</t>
+  </si>
+  <si>
+    <t>10:44:56 AM</t>
+  </si>
+  <si>
+    <t>10:45:01 AM</t>
+  </si>
+  <si>
+    <t>10:45:06 AM</t>
+  </si>
+  <si>
+    <t>10:45:12 AM</t>
+  </si>
+  <si>
+    <t>10:45:17 AM</t>
+  </si>
+  <si>
+    <t>10:45:22 AM</t>
+  </si>
+  <si>
+    <t>10:45:27 AM</t>
+  </si>
+  <si>
+    <t>10:45:32 AM</t>
+  </si>
+  <si>
+    <t>10:45:37 AM</t>
+  </si>
+  <si>
+    <t>10:45:43 AM</t>
+  </si>
+  <si>
+    <t>10:45:48 AM</t>
+  </si>
+  <si>
+    <t>10:45:53 AM</t>
+  </si>
+  <si>
+    <t>10:45:58 AM</t>
+  </si>
+  <si>
+    <t>10:46:03 AM</t>
+  </si>
+  <si>
+    <t>10:46:08 AM</t>
+  </si>
+  <si>
+    <t>10:46:13 AM</t>
+  </si>
+  <si>
+    <t>10:46:18 AM</t>
+  </si>
+  <si>
+    <t>10:46:24 AM</t>
+  </si>
+  <si>
+    <t>10:46:29 AM</t>
+  </si>
+  <si>
+    <t>10:46:34 AM</t>
+  </si>
+  <si>
+    <t>10:46:39 AM</t>
+  </si>
+  <si>
+    <t>10:46:44 AM</t>
+  </si>
+  <si>
+    <t>10:46:49 AM</t>
+  </si>
+  <si>
+    <t>10:46:54 AM</t>
+  </si>
+  <si>
+    <t>10:46:59 AM</t>
+  </si>
+  <si>
+    <t>10:47:05 AM</t>
+  </si>
+  <si>
+    <t>10:47:10 AM</t>
+  </si>
+  <si>
+    <t>10:47:15 AM</t>
+  </si>
+  <si>
+    <t>10:47:20 AM</t>
+  </si>
+  <si>
+    <t>10:47:25 AM</t>
+  </si>
+  <si>
+    <t>10:47:30 AM</t>
+  </si>
+  <si>
+    <t>10:47:36 AM</t>
+  </si>
+  <si>
+    <t>10:47:41 AM</t>
+  </si>
+  <si>
+    <t>10:47:46 AM</t>
+  </si>
+  <si>
+    <t>10:47:51 AM</t>
+  </si>
+  <si>
+    <t>10:47:56 AM</t>
+  </si>
+  <si>
+    <t>10:48:01 AM</t>
+  </si>
+  <si>
+    <t>10:48:06 AM</t>
+  </si>
+  <si>
+    <t>10:48:11 AM</t>
+  </si>
+  <si>
+    <t>10:48:16 AM</t>
+  </si>
+  <si>
+    <t>10:48:22 AM</t>
+  </si>
+  <si>
+    <t>10:48:27 AM</t>
+  </si>
+  <si>
+    <t>10:48:32 AM</t>
+  </si>
+  <si>
+    <t>10:48:37 AM</t>
+  </si>
+  <si>
+    <t>10:48:42 AM</t>
+  </si>
+  <si>
+    <t>10:48:47 AM</t>
+  </si>
+  <si>
+    <t>10:48:52 AM</t>
+  </si>
+  <si>
+    <t>10:48:57 AM</t>
+  </si>
+  <si>
+    <t>10:49:02 AM</t>
+  </si>
+  <si>
+    <t>10:49:08 AM</t>
+  </si>
+  <si>
+    <t>10:49:13 AM</t>
+  </si>
+  <si>
+    <t>10:49:18 AM</t>
+  </si>
+  <si>
+    <t>10:49:23 AM</t>
+  </si>
+  <si>
+    <t>10:49:28 AM</t>
+  </si>
+  <si>
+    <t>10:49:33 AM</t>
+  </si>
+  <si>
+    <t>10:49:38 AM</t>
+  </si>
+  <si>
+    <t>10:49:43 AM</t>
+  </si>
+  <si>
+    <t>10:49:48 AM</t>
+  </si>
+  <si>
+    <t>10:49:54 AM</t>
+  </si>
+  <si>
+    <t>10:49:59 AM</t>
+  </si>
+  <si>
+    <t>10:50:04 AM</t>
+  </si>
+  <si>
+    <t>10:50:09 AM</t>
+  </si>
+  <si>
+    <t>10:50:14 AM</t>
+  </si>
+  <si>
+    <t>10:50:19 AM</t>
+  </si>
+  <si>
+    <t>10:50:24 AM</t>
+  </si>
+  <si>
+    <t>10:50:29 AM</t>
+  </si>
+  <si>
+    <t>10:50:34 AM</t>
+  </si>
+  <si>
+    <t>10:50:40 AM</t>
+  </si>
+  <si>
+    <t>10:50:45 AM</t>
+  </si>
+  <si>
+    <t>10:50:50 AM</t>
+  </si>
+  <si>
+    <t>10:50:55 AM</t>
+  </si>
+  <si>
+    <t>10:51:00 AM</t>
+  </si>
+  <si>
+    <t>10:51:05 AM</t>
+  </si>
+  <si>
+    <t>10:51:10 AM</t>
+  </si>
+  <si>
+    <t>10:51:15 AM</t>
+  </si>
+  <si>
+    <t>10:51:21 AM</t>
+  </si>
+  <si>
+    <t>10:51:26 AM</t>
+  </si>
+  <si>
+    <t>10:51:31 AM</t>
+  </si>
+  <si>
+    <t>10:51:36 AM</t>
+  </si>
+  <si>
+    <t>10:51:41 AM</t>
+  </si>
+  <si>
+    <t>10:51:46 AM</t>
+  </si>
+  <si>
+    <t>10:51:52 AM</t>
+  </si>
+  <si>
+    <t>10:51:57 AM</t>
+  </si>
+  <si>
+    <t>10:52:02 AM</t>
+  </si>
+  <si>
+    <t>10:52:07 AM</t>
+  </si>
+  <si>
+    <t>10:52:13 AM</t>
+  </si>
+  <si>
+    <t>10:52:18 AM</t>
+  </si>
+  <si>
+    <t>10:52:23 AM</t>
+  </si>
+  <si>
+    <t>10:52:28 AM</t>
+  </si>
+  <si>
+    <t>10:52:34 AM</t>
+  </si>
+  <si>
+    <t>10:52:39 AM</t>
+  </si>
+  <si>
+    <t>10:52:44 AM</t>
+  </si>
+  <si>
+    <t>10:52:49 AM</t>
+  </si>
+  <si>
+    <t>10:52:55 AM</t>
+  </si>
+  <si>
+    <t>10:53:00 AM</t>
+  </si>
+  <si>
+    <t>10:53:05 AM</t>
+  </si>
+  <si>
+    <t>10:53:10 AM</t>
+  </si>
+  <si>
+    <t>10:53:16 AM</t>
+  </si>
+  <si>
+    <t>10:53:21 AM</t>
+  </si>
+  <si>
+    <t>10:53:26 AM</t>
+  </si>
+  <si>
+    <t>10:53:31 AM</t>
+  </si>
+  <si>
+    <t>10:53:36 AM</t>
+  </si>
+  <si>
+    <t>10:53:41 AM</t>
+  </si>
+  <si>
+    <t>10:53:47 AM</t>
+  </si>
+  <si>
+    <t>10:54:07 AM</t>
+  </si>
+  <si>
+    <t>10:54:12 AM</t>
+  </si>
+  <si>
+    <t>10:54:17 AM</t>
+  </si>
+  <si>
+    <t>10:54:23 AM</t>
+  </si>
+  <si>
+    <t>10:54:28 AM</t>
+  </si>
+  <si>
+    <t>10:54:33 AM</t>
+  </si>
+  <si>
+    <t>10:54:38 AM</t>
+  </si>
+  <si>
+    <t>10:54:44 AM</t>
+  </si>
+  <si>
+    <t>10:54:49 AM</t>
+  </si>
+  <si>
+    <t>10:54:54 AM</t>
+  </si>
+  <si>
+    <t>10:54:59 AM</t>
+  </si>
+  <si>
+    <t>10:55:04 AM</t>
+  </si>
+  <si>
+    <t>10:55:10 AM</t>
+  </si>
+  <si>
+    <t>10:55:15 AM</t>
+  </si>
+  <si>
+    <t>10:55:20 AM</t>
+  </si>
+  <si>
+    <t>10:55:25 AM</t>
+  </si>
+  <si>
+    <t>10:55:30 AM</t>
+  </si>
+  <si>
+    <t>10:55:36 AM</t>
+  </si>
+  <si>
+    <t>10:55:41 AM</t>
+  </si>
+  <si>
+    <t>10:55:46 AM</t>
+  </si>
+  <si>
+    <t>10:55:51 AM</t>
+  </si>
+  <si>
+    <t>10:55:56 AM</t>
+  </si>
+  <si>
+    <t>10:56:01 AM</t>
+  </si>
+  <si>
+    <t>10:56:06 AM</t>
+  </si>
+  <si>
+    <t>10:56:12 AM</t>
+  </si>
+  <si>
+    <t>10:56:17 AM</t>
+  </si>
+  <si>
+    <t>10:56:22 AM</t>
+  </si>
+  <si>
+    <t>10:56:27 AM</t>
+  </si>
+  <si>
+    <t>10:56:32 AM</t>
+  </si>
+  <si>
+    <t>10:56:37 AM</t>
+  </si>
+  <si>
+    <t>10:56:42 AM</t>
+  </si>
+  <si>
+    <t>10:56:47 AM</t>
+  </si>
+  <si>
+    <t>10:56:53 AM</t>
+  </si>
+  <si>
+    <t>10:56:58 AM</t>
+  </si>
+  <si>
+    <t>10:57:03 AM</t>
+  </si>
+  <si>
+    <t>10:57:08 AM</t>
+  </si>
+  <si>
+    <t>10:57:13 AM</t>
+  </si>
+  <si>
+    <t>10:57:18 AM</t>
+  </si>
+  <si>
+    <t>10:57:23 AM</t>
+  </si>
+  <si>
+    <t>10:57:28 AM</t>
+  </si>
+  <si>
+    <t>10:57:33 AM</t>
+  </si>
+  <si>
+    <t>10:57:39 AM</t>
+  </si>
+  <si>
+    <t>10:58:23 AM</t>
+  </si>
+  <si>
+    <t>10:58:29 AM</t>
+  </si>
+  <si>
+    <t>10:58:34 AM</t>
+  </si>
+  <si>
+    <t>10:58:39 AM</t>
+  </si>
+  <si>
+    <t>10:58:44 AM</t>
+  </si>
+  <si>
+    <t>10:58:49 AM</t>
+  </si>
+  <si>
+    <t>10:58:54 AM</t>
+  </si>
+  <si>
+    <t>10:58:59 AM</t>
+  </si>
+  <si>
+    <t>10:59:05 AM</t>
+  </si>
+  <si>
+    <t>10:59:10 AM</t>
+  </si>
+  <si>
+    <t>10:59:15 AM</t>
+  </si>
+  <si>
+    <t>10:59:20 AM</t>
+  </si>
+  <si>
+    <t>10:59:25 AM</t>
+  </si>
+  <si>
+    <t>10:59:30 AM</t>
+  </si>
+  <si>
+    <t>10:59:35 AM</t>
+  </si>
+  <si>
+    <t>10:59:41 AM</t>
+  </si>
+  <si>
+    <t>10:59:46 AM</t>
+  </si>
+  <si>
+    <t>10:59:51 AM</t>
+  </si>
+  <si>
+    <t>10:59:56 AM</t>
+  </si>
+  <si>
+    <t>11:00:01 AM</t>
+  </si>
+  <si>
+    <t>11:00:06 AM</t>
+  </si>
+  <si>
+    <t>11:00:12 AM</t>
+  </si>
+  <si>
+    <t>11:00:17 AM</t>
+  </si>
+  <si>
+    <t>11:00:22 AM</t>
+  </si>
+  <si>
+    <t>11:00:27 AM</t>
+  </si>
+  <si>
+    <t>11:00:32 AM</t>
+  </si>
+  <si>
+    <t>11:00:37 AM</t>
+  </si>
+  <si>
+    <t>11:00:42 AM</t>
+  </si>
+  <si>
+    <t>11:00:47 AM</t>
+  </si>
+  <si>
+    <t>11:00:53 AM</t>
+  </si>
+  <si>
+    <t>11:00:58 AM</t>
+  </si>
+  <si>
+    <t>11:01:03 AM</t>
+  </si>
+  <si>
+    <t>11:01:08 AM</t>
+  </si>
+  <si>
+    <t>11:01:13 AM</t>
+  </si>
+  <si>
+    <t>11:01:18 AM</t>
+  </si>
+  <si>
+    <t>11:01:24 AM</t>
+  </si>
+  <si>
+    <t>11:01:29 AM</t>
+  </si>
+  <si>
+    <t>11:01:34 AM</t>
+  </si>
+  <si>
+    <t>11:01:39 AM</t>
+  </si>
+  <si>
+    <t>11:01:44 AM</t>
+  </si>
+  <si>
+    <t>11:01:49 AM</t>
+  </si>
+  <si>
+    <t>11:01:54 AM</t>
+  </si>
+  <si>
+    <t>11:02:00 AM</t>
+  </si>
+  <si>
+    <t>11:02:05 AM</t>
+  </si>
+  <si>
+    <t>11:02:10 AM</t>
+  </si>
+  <si>
+    <t>11:02:15 AM</t>
+  </si>
+  <si>
+    <t>11:02:20 AM</t>
+  </si>
+  <si>
+    <t>11:02:25 AM</t>
+  </si>
+  <si>
+    <t>11:02:30 AM</t>
+  </si>
+  <si>
+    <t>11:02:36 AM</t>
+  </si>
+  <si>
+    <t>11:02:41 AM</t>
+  </si>
+  <si>
+    <t>11:02:46 AM</t>
+  </si>
+  <si>
+    <t>11:02:52 AM</t>
+  </si>
+  <si>
+    <t>11:02:57 AM</t>
+  </si>
+  <si>
+    <t>11:03:02 AM</t>
+  </si>
+  <si>
+    <t>11:03:07 AM</t>
+  </si>
+  <si>
+    <t>11:03:16 AM</t>
+  </si>
+  <si>
+    <t>11:03:21 AM</t>
+  </si>
+  <si>
+    <t>11:03:30 AM</t>
+  </si>
+  <si>
+    <t>11:03:36 AM</t>
+  </si>
+  <si>
+    <t>11:03:41 AM</t>
+  </si>
+  <si>
+    <t>11:03:46 AM</t>
+  </si>
+  <si>
+    <t>11:03:51 AM</t>
+  </si>
+  <si>
+    <t>11:03:56 AM</t>
+  </si>
+  <si>
+    <t>11:04:02 AM</t>
+  </si>
+  <si>
+    <t>11:04:07 AM</t>
+  </si>
+  <si>
+    <t>11:04:13 AM</t>
+  </si>
+  <si>
+    <t>11:04:18 AM</t>
+  </si>
+  <si>
+    <t>11:04:24 AM</t>
+  </si>
+  <si>
+    <t>11:04:29 AM</t>
+  </si>
+  <si>
+    <t>11:04:35 AM</t>
+  </si>
+  <si>
+    <t>11:04:40 AM</t>
+  </si>
+  <si>
+    <t>11:04:45 AM</t>
+  </si>
+  <si>
+    <t>11:04:50 AM</t>
+  </si>
+  <si>
+    <t>11:04:56 AM</t>
+  </si>
+  <si>
+    <t>11:05:01 AM</t>
+  </si>
+  <si>
+    <t>11:05:07 AM</t>
+  </si>
+  <si>
+    <t>11:05:12 AM</t>
+  </si>
+  <si>
+    <t>11:05:17 AM</t>
+  </si>
+  <si>
+    <t>11:05:23 AM</t>
+  </si>
+  <si>
+    <t>11:05:28 AM</t>
+  </si>
+  <si>
+    <t>11:05:34 AM</t>
+  </si>
+  <si>
+    <t>11:05:39 AM</t>
+  </si>
+  <si>
+    <t>11:05:44 AM</t>
+  </si>
+  <si>
+    <t>11:05:50 AM</t>
+  </si>
+  <si>
+    <t>11:05:55 AM</t>
+  </si>
+  <si>
+    <t>11:06:00 AM</t>
+  </si>
+  <si>
+    <t>11:06:06 AM</t>
+  </si>
+  <si>
+    <t>11:06:11 AM</t>
+  </si>
+  <si>
+    <t>11:06:16 AM</t>
+  </si>
+  <si>
+    <t>11:06:21 AM</t>
+  </si>
+  <si>
+    <t>11:06:26 AM</t>
+  </si>
+  <si>
+    <t>11:06:32 AM</t>
+  </si>
+  <si>
+    <t>11:06:37 AM</t>
+  </si>
+  <si>
+    <t>11:06:42 AM</t>
+  </si>
+  <si>
+    <t>11:06:47 AM</t>
+  </si>
+  <si>
+    <t>11:06:52 AM</t>
+  </si>
+  <si>
+    <t>11:06:57 AM</t>
+  </si>
+  <si>
+    <t>11:07:03 AM</t>
+  </si>
+  <si>
+    <t>11:07:08 AM</t>
+  </si>
+  <si>
+    <t>11:07:14 AM</t>
+  </si>
+  <si>
+    <t>11:07:19 AM</t>
+  </si>
+  <si>
+    <t>11:07:25 AM</t>
+  </si>
+  <si>
+    <t>11:07:30 AM</t>
+  </si>
+  <si>
+    <t>11:07:35 AM</t>
+  </si>
+  <si>
+    <t>11:07:44 AM</t>
+  </si>
+  <si>
+    <t>11:07:49 AM</t>
+  </si>
+  <si>
+    <t>11:07:54 AM</t>
+  </si>
+  <si>
+    <t>11:08:00 AM</t>
+  </si>
+  <si>
+    <t>11:15:33 AM</t>
+  </si>
+  <si>
+    <t>11:15:38 AM</t>
+  </si>
+  <si>
+    <t>11:15:44 AM</t>
+  </si>
+  <si>
+    <t>11:15:49 AM</t>
+  </si>
+  <si>
+    <t>11:16:19 AM</t>
+  </si>
+  <si>
+    <t>11:16:24 AM</t>
+  </si>
+  <si>
+    <t>11:16:30 AM</t>
+  </si>
+  <si>
+    <t>11:16:35 AM</t>
+  </si>
+  <si>
+    <t>12:05:12 PM</t>
+  </si>
+  <si>
+    <t>12:05:17 PM</t>
+  </si>
+  <si>
+    <t>12:05:23 PM</t>
+  </si>
+  <si>
+    <t>12:05:28 PM</t>
+  </si>
+  <si>
+    <t>12:05:33 PM</t>
+  </si>
+  <si>
+    <t>12:05:38 PM</t>
+  </si>
+  <si>
+    <t>12:05:43 PM</t>
+  </si>
+  <si>
+    <t>12:05:48 PM</t>
+  </si>
+  <si>
+    <t>12:05:54 PM</t>
+  </si>
+  <si>
+    <t>12:05:59 PM</t>
+  </si>
+  <si>
+    <t>12:06:04 PM</t>
+  </si>
+  <si>
+    <t>12:06:09 PM</t>
   </si>
 </sst>
 </file>
@@ -721,7 +1675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C677"/>
+  <dimension ref="A1:C994"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F662" sqref="F662"/>
@@ -8176,6 +9130,3493 @@
         <v>46</v>
       </c>
     </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>130</v>
+      </c>
+      <c r="B678" t="s">
+        <v>131</v>
+      </c>
+      <c r="C678">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>130</v>
+      </c>
+      <c r="B679" t="s">
+        <v>132</v>
+      </c>
+      <c r="C679">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>130</v>
+      </c>
+      <c r="B680" t="s">
+        <v>133</v>
+      </c>
+      <c r="C680">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>130</v>
+      </c>
+      <c r="B681" t="s">
+        <v>134</v>
+      </c>
+      <c r="C681">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>130</v>
+      </c>
+      <c r="B682" t="s">
+        <v>135</v>
+      </c>
+      <c r="C682">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>130</v>
+      </c>
+      <c r="B683" t="s">
+        <v>136</v>
+      </c>
+      <c r="C683">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>130</v>
+      </c>
+      <c r="B684" t="s">
+        <v>137</v>
+      </c>
+      <c r="C684">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>130</v>
+      </c>
+      <c r="B685" t="s">
+        <v>138</v>
+      </c>
+      <c r="C685">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>130</v>
+      </c>
+      <c r="B686" t="s">
+        <v>139</v>
+      </c>
+      <c r="C686">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>130</v>
+      </c>
+      <c r="B687" t="s">
+        <v>140</v>
+      </c>
+      <c r="C687">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>130</v>
+      </c>
+      <c r="B688" t="s">
+        <v>141</v>
+      </c>
+      <c r="C688">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>130</v>
+      </c>
+      <c r="B689" t="s">
+        <v>142</v>
+      </c>
+      <c r="C689">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>130</v>
+      </c>
+      <c r="B690" t="s">
+        <v>143</v>
+      </c>
+      <c r="C690">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>130</v>
+      </c>
+      <c r="B691" t="s">
+        <v>144</v>
+      </c>
+      <c r="C691">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>130</v>
+      </c>
+      <c r="B692" t="s">
+        <v>145</v>
+      </c>
+      <c r="C692">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>130</v>
+      </c>
+      <c r="B693" t="s">
+        <v>146</v>
+      </c>
+      <c r="C693">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>130</v>
+      </c>
+      <c r="B694" t="s">
+        <v>147</v>
+      </c>
+      <c r="C694">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>130</v>
+      </c>
+      <c r="B695" t="s">
+        <v>148</v>
+      </c>
+      <c r="C695">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>130</v>
+      </c>
+      <c r="B696" t="s">
+        <v>149</v>
+      </c>
+      <c r="C696">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>130</v>
+      </c>
+      <c r="B697" t="s">
+        <v>150</v>
+      </c>
+      <c r="C697">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>130</v>
+      </c>
+      <c r="B698" t="s">
+        <v>151</v>
+      </c>
+      <c r="C698">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>130</v>
+      </c>
+      <c r="B699" t="s">
+        <v>152</v>
+      </c>
+      <c r="C699">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>130</v>
+      </c>
+      <c r="B700" t="s">
+        <v>153</v>
+      </c>
+      <c r="C700">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>130</v>
+      </c>
+      <c r="B701" t="s">
+        <v>154</v>
+      </c>
+      <c r="C701">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>130</v>
+      </c>
+      <c r="B702" t="s">
+        <v>155</v>
+      </c>
+      <c r="C702">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>130</v>
+      </c>
+      <c r="B703" t="s">
+        <v>156</v>
+      </c>
+      <c r="C703">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>130</v>
+      </c>
+      <c r="B704" t="s">
+        <v>157</v>
+      </c>
+      <c r="C704">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>130</v>
+      </c>
+      <c r="B705" t="s">
+        <v>158</v>
+      </c>
+      <c r="C705">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>130</v>
+      </c>
+      <c r="B706" t="s">
+        <v>159</v>
+      </c>
+      <c r="C706">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>130</v>
+      </c>
+      <c r="B707" t="s">
+        <v>160</v>
+      </c>
+      <c r="C707">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>130</v>
+      </c>
+      <c r="B708" t="s">
+        <v>161</v>
+      </c>
+      <c r="C708">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>130</v>
+      </c>
+      <c r="B709" t="s">
+        <v>162</v>
+      </c>
+      <c r="C709">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>130</v>
+      </c>
+      <c r="B710" t="s">
+        <v>163</v>
+      </c>
+      <c r="C710">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>130</v>
+      </c>
+      <c r="B711" t="s">
+        <v>164</v>
+      </c>
+      <c r="C711">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>130</v>
+      </c>
+      <c r="B712" t="s">
+        <v>165</v>
+      </c>
+      <c r="C712">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>130</v>
+      </c>
+      <c r="B713" t="s">
+        <v>166</v>
+      </c>
+      <c r="C713">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>130</v>
+      </c>
+      <c r="B714" t="s">
+        <v>167</v>
+      </c>
+      <c r="C714">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>130</v>
+      </c>
+      <c r="B715" t="s">
+        <v>168</v>
+      </c>
+      <c r="C715">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>130</v>
+      </c>
+      <c r="B716" t="s">
+        <v>169</v>
+      </c>
+      <c r="C716">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>130</v>
+      </c>
+      <c r="B717" t="s">
+        <v>170</v>
+      </c>
+      <c r="C717">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>130</v>
+      </c>
+      <c r="B718" t="s">
+        <v>171</v>
+      </c>
+      <c r="C718">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>130</v>
+      </c>
+      <c r="B719" t="s">
+        <v>172</v>
+      </c>
+      <c r="C719">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>130</v>
+      </c>
+      <c r="B720" t="s">
+        <v>173</v>
+      </c>
+      <c r="C720">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>130</v>
+      </c>
+      <c r="B721" t="s">
+        <v>174</v>
+      </c>
+      <c r="C721">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>130</v>
+      </c>
+      <c r="B722" t="s">
+        <v>175</v>
+      </c>
+      <c r="C722">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>130</v>
+      </c>
+      <c r="B723" t="s">
+        <v>176</v>
+      </c>
+      <c r="C723">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>130</v>
+      </c>
+      <c r="B724" t="s">
+        <v>177</v>
+      </c>
+      <c r="C724">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>130</v>
+      </c>
+      <c r="B725" t="s">
+        <v>178</v>
+      </c>
+      <c r="C725">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>130</v>
+      </c>
+      <c r="B726" t="s">
+        <v>179</v>
+      </c>
+      <c r="C726">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>130</v>
+      </c>
+      <c r="B727" t="s">
+        <v>180</v>
+      </c>
+      <c r="C727">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>130</v>
+      </c>
+      <c r="B728" t="s">
+        <v>181</v>
+      </c>
+      <c r="C728">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>130</v>
+      </c>
+      <c r="B729" t="s">
+        <v>182</v>
+      </c>
+      <c r="C729">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>130</v>
+      </c>
+      <c r="B730" t="s">
+        <v>183</v>
+      </c>
+      <c r="C730">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>130</v>
+      </c>
+      <c r="B731" t="s">
+        <v>184</v>
+      </c>
+      <c r="C731">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>130</v>
+      </c>
+      <c r="B732" t="s">
+        <v>185</v>
+      </c>
+      <c r="C732">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>130</v>
+      </c>
+      <c r="B733" t="s">
+        <v>186</v>
+      </c>
+      <c r="C733">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>130</v>
+      </c>
+      <c r="B734" t="s">
+        <v>187</v>
+      </c>
+      <c r="C734">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>130</v>
+      </c>
+      <c r="B735" t="s">
+        <v>188</v>
+      </c>
+      <c r="C735">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>130</v>
+      </c>
+      <c r="B736" t="s">
+        <v>189</v>
+      </c>
+      <c r="C736">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>130</v>
+      </c>
+      <c r="B737" t="s">
+        <v>190</v>
+      </c>
+      <c r="C737">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>130</v>
+      </c>
+      <c r="B738" t="s">
+        <v>191</v>
+      </c>
+      <c r="C738">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>130</v>
+      </c>
+      <c r="B739" t="s">
+        <v>192</v>
+      </c>
+      <c r="C739">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>130</v>
+      </c>
+      <c r="B740" t="s">
+        <v>193</v>
+      </c>
+      <c r="C740">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>130</v>
+      </c>
+      <c r="B741" t="s">
+        <v>194</v>
+      </c>
+      <c r="C741">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>130</v>
+      </c>
+      <c r="B742" t="s">
+        <v>195</v>
+      </c>
+      <c r="C742">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>130</v>
+      </c>
+      <c r="B743" t="s">
+        <v>196</v>
+      </c>
+      <c r="C743">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>130</v>
+      </c>
+      <c r="B744" t="s">
+        <v>197</v>
+      </c>
+      <c r="C744">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>130</v>
+      </c>
+      <c r="B745" t="s">
+        <v>198</v>
+      </c>
+      <c r="C745">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>130</v>
+      </c>
+      <c r="B746" t="s">
+        <v>199</v>
+      </c>
+      <c r="C746">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>130</v>
+      </c>
+      <c r="B747" t="s">
+        <v>200</v>
+      </c>
+      <c r="C747">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>130</v>
+      </c>
+      <c r="B748" t="s">
+        <v>201</v>
+      </c>
+      <c r="C748">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>130</v>
+      </c>
+      <c r="B749" t="s">
+        <v>202</v>
+      </c>
+      <c r="C749">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>130</v>
+      </c>
+      <c r="B750" t="s">
+        <v>203</v>
+      </c>
+      <c r="C750">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>130</v>
+      </c>
+      <c r="B751" t="s">
+        <v>204</v>
+      </c>
+      <c r="C751">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>130</v>
+      </c>
+      <c r="B752" t="s">
+        <v>205</v>
+      </c>
+      <c r="C752">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>130</v>
+      </c>
+      <c r="B753" t="s">
+        <v>206</v>
+      </c>
+      <c r="C753">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>130</v>
+      </c>
+      <c r="B754" t="s">
+        <v>207</v>
+      </c>
+      <c r="C754">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>130</v>
+      </c>
+      <c r="B755" t="s">
+        <v>208</v>
+      </c>
+      <c r="C755">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>130</v>
+      </c>
+      <c r="B756" t="s">
+        <v>209</v>
+      </c>
+      <c r="C756">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>130</v>
+      </c>
+      <c r="B757" t="s">
+        <v>210</v>
+      </c>
+      <c r="C757">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>130</v>
+      </c>
+      <c r="B758" t="s">
+        <v>211</v>
+      </c>
+      <c r="C758">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>130</v>
+      </c>
+      <c r="B759" t="s">
+        <v>212</v>
+      </c>
+      <c r="C759">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>130</v>
+      </c>
+      <c r="B760" t="s">
+        <v>213</v>
+      </c>
+      <c r="C760">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>130</v>
+      </c>
+      <c r="B761" t="s">
+        <v>214</v>
+      </c>
+      <c r="C761">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>130</v>
+      </c>
+      <c r="B762" t="s">
+        <v>215</v>
+      </c>
+      <c r="C762">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>130</v>
+      </c>
+      <c r="B763" t="s">
+        <v>216</v>
+      </c>
+      <c r="C763">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>130</v>
+      </c>
+      <c r="B764" t="s">
+        <v>217</v>
+      </c>
+      <c r="C764">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>130</v>
+      </c>
+      <c r="B765" t="s">
+        <v>218</v>
+      </c>
+      <c r="C765">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>130</v>
+      </c>
+      <c r="B766" t="s">
+        <v>219</v>
+      </c>
+      <c r="C766">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>130</v>
+      </c>
+      <c r="B767" t="s">
+        <v>220</v>
+      </c>
+      <c r="C767">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>130</v>
+      </c>
+      <c r="B768" t="s">
+        <v>221</v>
+      </c>
+      <c r="C768">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>130</v>
+      </c>
+      <c r="B769" t="s">
+        <v>222</v>
+      </c>
+      <c r="C769">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>130</v>
+      </c>
+      <c r="B770" t="s">
+        <v>223</v>
+      </c>
+      <c r="C770">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>130</v>
+      </c>
+      <c r="B771" t="s">
+        <v>224</v>
+      </c>
+      <c r="C771">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>130</v>
+      </c>
+      <c r="B772" t="s">
+        <v>225</v>
+      </c>
+      <c r="C772">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>130</v>
+      </c>
+      <c r="B773" t="s">
+        <v>226</v>
+      </c>
+      <c r="C773">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>130</v>
+      </c>
+      <c r="B774" t="s">
+        <v>227</v>
+      </c>
+      <c r="C774">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>130</v>
+      </c>
+      <c r="B775" t="s">
+        <v>228</v>
+      </c>
+      <c r="C775">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>130</v>
+      </c>
+      <c r="B776" t="s">
+        <v>229</v>
+      </c>
+      <c r="C776">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>130</v>
+      </c>
+      <c r="B777" t="s">
+        <v>230</v>
+      </c>
+      <c r="C777">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>130</v>
+      </c>
+      <c r="B778" t="s">
+        <v>231</v>
+      </c>
+      <c r="C778">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>130</v>
+      </c>
+      <c r="B779" t="s">
+        <v>232</v>
+      </c>
+      <c r="C779">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>130</v>
+      </c>
+      <c r="B780" t="s">
+        <v>233</v>
+      </c>
+      <c r="C780">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>130</v>
+      </c>
+      <c r="B781" t="s">
+        <v>234</v>
+      </c>
+      <c r="C781">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>130</v>
+      </c>
+      <c r="B782" t="s">
+        <v>235</v>
+      </c>
+      <c r="C782">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>130</v>
+      </c>
+      <c r="B783" t="s">
+        <v>236</v>
+      </c>
+      <c r="C783">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>130</v>
+      </c>
+      <c r="B784" t="s">
+        <v>237</v>
+      </c>
+      <c r="C784">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>130</v>
+      </c>
+      <c r="B785" t="s">
+        <v>238</v>
+      </c>
+      <c r="C785">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>130</v>
+      </c>
+      <c r="B786" t="s">
+        <v>239</v>
+      </c>
+      <c r="C786">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>130</v>
+      </c>
+      <c r="B787" t="s">
+        <v>240</v>
+      </c>
+      <c r="C787">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>130</v>
+      </c>
+      <c r="B788" t="s">
+        <v>241</v>
+      </c>
+      <c r="C788">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>130</v>
+      </c>
+      <c r="B789" t="s">
+        <v>242</v>
+      </c>
+      <c r="C789">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>130</v>
+      </c>
+      <c r="B790" t="s">
+        <v>243</v>
+      </c>
+      <c r="C790">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>130</v>
+      </c>
+      <c r="B791" t="s">
+        <v>244</v>
+      </c>
+      <c r="C791">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>130</v>
+      </c>
+      <c r="B792" t="s">
+        <v>245</v>
+      </c>
+      <c r="C792">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>130</v>
+      </c>
+      <c r="B793" t="s">
+        <v>246</v>
+      </c>
+      <c r="C793">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>130</v>
+      </c>
+      <c r="B794" t="s">
+        <v>247</v>
+      </c>
+      <c r="C794">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>130</v>
+      </c>
+      <c r="B795" t="s">
+        <v>248</v>
+      </c>
+      <c r="C795">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>130</v>
+      </c>
+      <c r="B796" t="s">
+        <v>249</v>
+      </c>
+      <c r="C796">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>130</v>
+      </c>
+      <c r="B797" t="s">
+        <v>250</v>
+      </c>
+      <c r="C797">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>130</v>
+      </c>
+      <c r="B798" t="s">
+        <v>251</v>
+      </c>
+      <c r="C798">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>130</v>
+      </c>
+      <c r="B799" t="s">
+        <v>252</v>
+      </c>
+      <c r="C799">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>130</v>
+      </c>
+      <c r="B800" t="s">
+        <v>253</v>
+      </c>
+      <c r="C800">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>130</v>
+      </c>
+      <c r="B801" t="s">
+        <v>254</v>
+      </c>
+      <c r="C801">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>130</v>
+      </c>
+      <c r="B802" t="s">
+        <v>255</v>
+      </c>
+      <c r="C802">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>130</v>
+      </c>
+      <c r="B803" t="s">
+        <v>256</v>
+      </c>
+      <c r="C803">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>130</v>
+      </c>
+      <c r="B804" t="s">
+        <v>257</v>
+      </c>
+      <c r="C804">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>130</v>
+      </c>
+      <c r="B805" t="s">
+        <v>258</v>
+      </c>
+      <c r="C805">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>130</v>
+      </c>
+      <c r="B806" t="s">
+        <v>259</v>
+      </c>
+      <c r="C806">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>130</v>
+      </c>
+      <c r="B807" t="s">
+        <v>260</v>
+      </c>
+      <c r="C807">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>130</v>
+      </c>
+      <c r="B808" t="s">
+        <v>261</v>
+      </c>
+      <c r="C808">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>130</v>
+      </c>
+      <c r="B809" t="s">
+        <v>262</v>
+      </c>
+      <c r="C809">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>130</v>
+      </c>
+      <c r="B810" t="s">
+        <v>263</v>
+      </c>
+      <c r="C810">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>130</v>
+      </c>
+      <c r="B811" t="s">
+        <v>264</v>
+      </c>
+      <c r="C811">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>130</v>
+      </c>
+      <c r="B812" t="s">
+        <v>265</v>
+      </c>
+      <c r="C812">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>130</v>
+      </c>
+      <c r="B813" t="s">
+        <v>266</v>
+      </c>
+      <c r="C813">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>130</v>
+      </c>
+      <c r="B814" t="s">
+        <v>267</v>
+      </c>
+      <c r="C814">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>130</v>
+      </c>
+      <c r="B815" t="s">
+        <v>268</v>
+      </c>
+      <c r="C815">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>130</v>
+      </c>
+      <c r="B816" t="s">
+        <v>269</v>
+      </c>
+      <c r="C816">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>130</v>
+      </c>
+      <c r="B817" t="s">
+        <v>270</v>
+      </c>
+      <c r="C817">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>130</v>
+      </c>
+      <c r="B818" t="s">
+        <v>271</v>
+      </c>
+      <c r="C818">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>130</v>
+      </c>
+      <c r="B819" t="s">
+        <v>272</v>
+      </c>
+      <c r="C819">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>130</v>
+      </c>
+      <c r="B820" t="s">
+        <v>273</v>
+      </c>
+      <c r="C820">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>130</v>
+      </c>
+      <c r="B821" t="s">
+        <v>274</v>
+      </c>
+      <c r="C821">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>130</v>
+      </c>
+      <c r="B822" t="s">
+        <v>275</v>
+      </c>
+      <c r="C822">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>130</v>
+      </c>
+      <c r="B823" t="s">
+        <v>276</v>
+      </c>
+      <c r="C823">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>130</v>
+      </c>
+      <c r="B824" t="s">
+        <v>277</v>
+      </c>
+      <c r="C824">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>130</v>
+      </c>
+      <c r="B825" t="s">
+        <v>278</v>
+      </c>
+      <c r="C825">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>130</v>
+      </c>
+      <c r="B826" t="s">
+        <v>279</v>
+      </c>
+      <c r="C826">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>130</v>
+      </c>
+      <c r="B827" t="s">
+        <v>280</v>
+      </c>
+      <c r="C827">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>130</v>
+      </c>
+      <c r="B828" t="s">
+        <v>281</v>
+      </c>
+      <c r="C828">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>130</v>
+      </c>
+      <c r="B829" t="s">
+        <v>282</v>
+      </c>
+      <c r="C829">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>130</v>
+      </c>
+      <c r="B830" t="s">
+        <v>283</v>
+      </c>
+      <c r="C830">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>130</v>
+      </c>
+      <c r="B831" t="s">
+        <v>284</v>
+      </c>
+      <c r="C831">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>130</v>
+      </c>
+      <c r="B832" t="s">
+        <v>285</v>
+      </c>
+      <c r="C832">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>130</v>
+      </c>
+      <c r="B833" t="s">
+        <v>286</v>
+      </c>
+      <c r="C833">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>130</v>
+      </c>
+      <c r="B834" t="s">
+        <v>287</v>
+      </c>
+      <c r="C834">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>130</v>
+      </c>
+      <c r="B835" t="s">
+        <v>288</v>
+      </c>
+      <c r="C835">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>130</v>
+      </c>
+      <c r="B836" t="s">
+        <v>289</v>
+      </c>
+      <c r="C836">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>130</v>
+      </c>
+      <c r="B837" t="s">
+        <v>290</v>
+      </c>
+      <c r="C837">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>130</v>
+      </c>
+      <c r="B838" t="s">
+        <v>291</v>
+      </c>
+      <c r="C838">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>130</v>
+      </c>
+      <c r="B839" t="s">
+        <v>292</v>
+      </c>
+      <c r="C839">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>130</v>
+      </c>
+      <c r="B840" t="s">
+        <v>293</v>
+      </c>
+      <c r="C840">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>130</v>
+      </c>
+      <c r="B841" t="s">
+        <v>294</v>
+      </c>
+      <c r="C841">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>130</v>
+      </c>
+      <c r="B842" t="s">
+        <v>295</v>
+      </c>
+      <c r="C842">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>130</v>
+      </c>
+      <c r="B843" t="s">
+        <v>296</v>
+      </c>
+      <c r="C843">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>130</v>
+      </c>
+      <c r="B844" t="s">
+        <v>297</v>
+      </c>
+      <c r="C844">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>130</v>
+      </c>
+      <c r="B845" t="s">
+        <v>298</v>
+      </c>
+      <c r="C845">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>130</v>
+      </c>
+      <c r="B846" t="s">
+        <v>299</v>
+      </c>
+      <c r="C846">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>130</v>
+      </c>
+      <c r="B847" t="s">
+        <v>300</v>
+      </c>
+      <c r="C847">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>130</v>
+      </c>
+      <c r="B848" t="s">
+        <v>301</v>
+      </c>
+      <c r="C848">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>130</v>
+      </c>
+      <c r="B849" t="s">
+        <v>302</v>
+      </c>
+      <c r="C849">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>130</v>
+      </c>
+      <c r="B850" t="s">
+        <v>303</v>
+      </c>
+      <c r="C850">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>130</v>
+      </c>
+      <c r="B851" t="s">
+        <v>304</v>
+      </c>
+      <c r="C851">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>130</v>
+      </c>
+      <c r="B852" t="s">
+        <v>305</v>
+      </c>
+      <c r="C852">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>130</v>
+      </c>
+      <c r="B853" t="s">
+        <v>306</v>
+      </c>
+      <c r="C853">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>130</v>
+      </c>
+      <c r="B854" t="s">
+        <v>307</v>
+      </c>
+      <c r="C854">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>130</v>
+      </c>
+      <c r="B855" t="s">
+        <v>308</v>
+      </c>
+      <c r="C855">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>130</v>
+      </c>
+      <c r="B856" t="s">
+        <v>309</v>
+      </c>
+      <c r="C856">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>130</v>
+      </c>
+      <c r="B857" t="s">
+        <v>310</v>
+      </c>
+      <c r="C857">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>130</v>
+      </c>
+      <c r="B858" t="s">
+        <v>311</v>
+      </c>
+      <c r="C858">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>130</v>
+      </c>
+      <c r="B859" t="s">
+        <v>312</v>
+      </c>
+      <c r="C859">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>130</v>
+      </c>
+      <c r="B860" t="s">
+        <v>313</v>
+      </c>
+      <c r="C860">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>130</v>
+      </c>
+      <c r="B861" t="s">
+        <v>314</v>
+      </c>
+      <c r="C861">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>130</v>
+      </c>
+      <c r="B862" t="s">
+        <v>315</v>
+      </c>
+      <c r="C862">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>130</v>
+      </c>
+      <c r="B863" t="s">
+        <v>316</v>
+      </c>
+      <c r="C863">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>130</v>
+      </c>
+      <c r="B864" t="s">
+        <v>317</v>
+      </c>
+      <c r="C864">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>130</v>
+      </c>
+      <c r="B865" t="s">
+        <v>318</v>
+      </c>
+      <c r="C865">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>130</v>
+      </c>
+      <c r="B866" t="s">
+        <v>319</v>
+      </c>
+      <c r="C866">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>130</v>
+      </c>
+      <c r="B867" t="s">
+        <v>320</v>
+      </c>
+      <c r="C867">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>130</v>
+      </c>
+      <c r="B868" t="s">
+        <v>321</v>
+      </c>
+      <c r="C868">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>130</v>
+      </c>
+      <c r="B869" t="s">
+        <v>322</v>
+      </c>
+      <c r="C869">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>130</v>
+      </c>
+      <c r="B870" t="s">
+        <v>323</v>
+      </c>
+      <c r="C870">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>130</v>
+      </c>
+      <c r="B871" t="s">
+        <v>324</v>
+      </c>
+      <c r="C871">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>130</v>
+      </c>
+      <c r="B872" t="s">
+        <v>325</v>
+      </c>
+      <c r="C872">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>130</v>
+      </c>
+      <c r="B873" t="s">
+        <v>326</v>
+      </c>
+      <c r="C873">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>130</v>
+      </c>
+      <c r="B874" t="s">
+        <v>327</v>
+      </c>
+      <c r="C874">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>130</v>
+      </c>
+      <c r="B875" t="s">
+        <v>328</v>
+      </c>
+      <c r="C875">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>130</v>
+      </c>
+      <c r="B876" t="s">
+        <v>329</v>
+      </c>
+      <c r="C876">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>130</v>
+      </c>
+      <c r="B877" t="s">
+        <v>330</v>
+      </c>
+      <c r="C877">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>130</v>
+      </c>
+      <c r="B878" t="s">
+        <v>331</v>
+      </c>
+      <c r="C878">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>130</v>
+      </c>
+      <c r="B879" t="s">
+        <v>332</v>
+      </c>
+      <c r="C879">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>130</v>
+      </c>
+      <c r="B880" t="s">
+        <v>333</v>
+      </c>
+      <c r="C880">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>130</v>
+      </c>
+      <c r="B881" t="s">
+        <v>334</v>
+      </c>
+      <c r="C881">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>130</v>
+      </c>
+      <c r="B882" t="s">
+        <v>335</v>
+      </c>
+      <c r="C882">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>130</v>
+      </c>
+      <c r="B883" t="s">
+        <v>336</v>
+      </c>
+      <c r="C883">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>130</v>
+      </c>
+      <c r="B884" t="s">
+        <v>337</v>
+      </c>
+      <c r="C884">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>130</v>
+      </c>
+      <c r="B885" t="s">
+        <v>338</v>
+      </c>
+      <c r="C885">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>130</v>
+      </c>
+      <c r="B886" t="s">
+        <v>339</v>
+      </c>
+      <c r="C886">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>130</v>
+      </c>
+      <c r="B887" t="s">
+        <v>340</v>
+      </c>
+      <c r="C887">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>130</v>
+      </c>
+      <c r="B888" t="s">
+        <v>341</v>
+      </c>
+      <c r="C888">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>130</v>
+      </c>
+      <c r="B889" t="s">
+        <v>342</v>
+      </c>
+      <c r="C889">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>130</v>
+      </c>
+      <c r="B890" t="s">
+        <v>343</v>
+      </c>
+      <c r="C890">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>130</v>
+      </c>
+      <c r="B891" t="s">
+        <v>344</v>
+      </c>
+      <c r="C891">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>130</v>
+      </c>
+      <c r="B892" t="s">
+        <v>345</v>
+      </c>
+      <c r="C892">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>130</v>
+      </c>
+      <c r="B893" t="s">
+        <v>346</v>
+      </c>
+      <c r="C893">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>130</v>
+      </c>
+      <c r="B894" t="s">
+        <v>347</v>
+      </c>
+      <c r="C894">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>130</v>
+      </c>
+      <c r="B895" t="s">
+        <v>348</v>
+      </c>
+      <c r="C895">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>130</v>
+      </c>
+      <c r="B896" t="s">
+        <v>349</v>
+      </c>
+      <c r="C896">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>130</v>
+      </c>
+      <c r="B897" t="s">
+        <v>350</v>
+      </c>
+      <c r="C897">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>130</v>
+      </c>
+      <c r="B898" t="s">
+        <v>351</v>
+      </c>
+      <c r="C898">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>130</v>
+      </c>
+      <c r="B899" t="s">
+        <v>352</v>
+      </c>
+      <c r="C899">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>130</v>
+      </c>
+      <c r="B900" t="s">
+        <v>353</v>
+      </c>
+      <c r="C900">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>130</v>
+      </c>
+      <c r="B901" t="s">
+        <v>354</v>
+      </c>
+      <c r="C901">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>130</v>
+      </c>
+      <c r="B902" t="s">
+        <v>355</v>
+      </c>
+      <c r="C902">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>130</v>
+      </c>
+      <c r="B903" t="s">
+        <v>356</v>
+      </c>
+      <c r="C903">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>130</v>
+      </c>
+      <c r="B904" t="s">
+        <v>357</v>
+      </c>
+      <c r="C904">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>130</v>
+      </c>
+      <c r="B905" t="s">
+        <v>358</v>
+      </c>
+      <c r="C905">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>130</v>
+      </c>
+      <c r="B906" t="s">
+        <v>359</v>
+      </c>
+      <c r="C906">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>130</v>
+      </c>
+      <c r="B907" t="s">
+        <v>360</v>
+      </c>
+      <c r="C907">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>130</v>
+      </c>
+      <c r="B908" t="s">
+        <v>361</v>
+      </c>
+      <c r="C908">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>130</v>
+      </c>
+      <c r="B909" t="s">
+        <v>362</v>
+      </c>
+      <c r="C909">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>130</v>
+      </c>
+      <c r="B910" t="s">
+        <v>363</v>
+      </c>
+      <c r="C910">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>130</v>
+      </c>
+      <c r="B911" t="s">
+        <v>364</v>
+      </c>
+      <c r="C911">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>130</v>
+      </c>
+      <c r="B912" t="s">
+        <v>365</v>
+      </c>
+      <c r="C912">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>130</v>
+      </c>
+      <c r="B913" t="s">
+        <v>366</v>
+      </c>
+      <c r="C913">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>130</v>
+      </c>
+      <c r="B914" t="s">
+        <v>367</v>
+      </c>
+      <c r="C914">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>130</v>
+      </c>
+      <c r="B915" t="s">
+        <v>368</v>
+      </c>
+      <c r="C915">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>130</v>
+      </c>
+      <c r="B916" t="s">
+        <v>369</v>
+      </c>
+      <c r="C916">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>130</v>
+      </c>
+      <c r="B917" t="s">
+        <v>370</v>
+      </c>
+      <c r="C917">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>130</v>
+      </c>
+      <c r="B918" t="s">
+        <v>371</v>
+      </c>
+      <c r="C918">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>130</v>
+      </c>
+      <c r="B919" t="s">
+        <v>372</v>
+      </c>
+      <c r="C919">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>130</v>
+      </c>
+      <c r="B920" t="s">
+        <v>373</v>
+      </c>
+      <c r="C920">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>130</v>
+      </c>
+      <c r="B921" t="s">
+        <v>374</v>
+      </c>
+      <c r="C921">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>130</v>
+      </c>
+      <c r="B922" t="s">
+        <v>375</v>
+      </c>
+      <c r="C922">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>130</v>
+      </c>
+      <c r="B923" t="s">
+        <v>376</v>
+      </c>
+      <c r="C923">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>130</v>
+      </c>
+      <c r="B924" t="s">
+        <v>377</v>
+      </c>
+      <c r="C924">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>130</v>
+      </c>
+      <c r="B925" t="s">
+        <v>378</v>
+      </c>
+      <c r="C925">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>130</v>
+      </c>
+      <c r="B926" t="s">
+        <v>379</v>
+      </c>
+      <c r="C926">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>130</v>
+      </c>
+      <c r="B927" t="s">
+        <v>380</v>
+      </c>
+      <c r="C927">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>130</v>
+      </c>
+      <c r="B928" t="s">
+        <v>381</v>
+      </c>
+      <c r="C928">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>130</v>
+      </c>
+      <c r="B929" t="s">
+        <v>382</v>
+      </c>
+      <c r="C929">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>130</v>
+      </c>
+      <c r="B930" t="s">
+        <v>383</v>
+      </c>
+      <c r="C930">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>130</v>
+      </c>
+      <c r="B931" t="s">
+        <v>384</v>
+      </c>
+      <c r="C931">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>130</v>
+      </c>
+      <c r="B932" t="s">
+        <v>385</v>
+      </c>
+      <c r="C932">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>130</v>
+      </c>
+      <c r="B933" t="s">
+        <v>386</v>
+      </c>
+      <c r="C933">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>130</v>
+      </c>
+      <c r="B934" t="s">
+        <v>387</v>
+      </c>
+      <c r="C934">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>130</v>
+      </c>
+      <c r="B935" t="s">
+        <v>388</v>
+      </c>
+      <c r="C935">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>130</v>
+      </c>
+      <c r="B936" t="s">
+        <v>389</v>
+      </c>
+      <c r="C936">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>130</v>
+      </c>
+      <c r="B937" t="s">
+        <v>390</v>
+      </c>
+      <c r="C937">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>130</v>
+      </c>
+      <c r="B938" t="s">
+        <v>391</v>
+      </c>
+      <c r="C938">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>130</v>
+      </c>
+      <c r="B939" t="s">
+        <v>392</v>
+      </c>
+      <c r="C939">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>130</v>
+      </c>
+      <c r="B940" t="s">
+        <v>393</v>
+      </c>
+      <c r="C940">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>130</v>
+      </c>
+      <c r="B941" t="s">
+        <v>394</v>
+      </c>
+      <c r="C941">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>130</v>
+      </c>
+      <c r="B942" t="s">
+        <v>395</v>
+      </c>
+      <c r="C942">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>130</v>
+      </c>
+      <c r="B943" t="s">
+        <v>396</v>
+      </c>
+      <c r="C943">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>130</v>
+      </c>
+      <c r="B944" t="s">
+        <v>397</v>
+      </c>
+      <c r="C944">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>130</v>
+      </c>
+      <c r="B945" t="s">
+        <v>398</v>
+      </c>
+      <c r="C945">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>130</v>
+      </c>
+      <c r="B946" t="s">
+        <v>399</v>
+      </c>
+      <c r="C946">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>130</v>
+      </c>
+      <c r="B947" t="s">
+        <v>400</v>
+      </c>
+      <c r="C947">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>130</v>
+      </c>
+      <c r="B948" t="s">
+        <v>401</v>
+      </c>
+      <c r="C948">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>130</v>
+      </c>
+      <c r="B949" t="s">
+        <v>402</v>
+      </c>
+      <c r="C949">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>130</v>
+      </c>
+      <c r="B950" t="s">
+        <v>403</v>
+      </c>
+      <c r="C950">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>130</v>
+      </c>
+      <c r="B951" t="s">
+        <v>404</v>
+      </c>
+      <c r="C951">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>130</v>
+      </c>
+      <c r="B952" t="s">
+        <v>405</v>
+      </c>
+      <c r="C952">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>130</v>
+      </c>
+      <c r="B953" t="s">
+        <v>406</v>
+      </c>
+      <c r="C953">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>130</v>
+      </c>
+      <c r="B954" t="s">
+        <v>407</v>
+      </c>
+      <c r="C954">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>130</v>
+      </c>
+      <c r="B955" t="s">
+        <v>408</v>
+      </c>
+      <c r="C955">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>130</v>
+      </c>
+      <c r="B956" t="s">
+        <v>409</v>
+      </c>
+      <c r="C956">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>130</v>
+      </c>
+      <c r="B957" t="s">
+        <v>410</v>
+      </c>
+      <c r="C957">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>130</v>
+      </c>
+      <c r="B958" t="s">
+        <v>411</v>
+      </c>
+      <c r="C958">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>130</v>
+      </c>
+      <c r="B959" t="s">
+        <v>412</v>
+      </c>
+      <c r="C959">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>130</v>
+      </c>
+      <c r="B960" t="s">
+        <v>413</v>
+      </c>
+      <c r="C960">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>130</v>
+      </c>
+      <c r="B961" t="s">
+        <v>414</v>
+      </c>
+      <c r="C961">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>130</v>
+      </c>
+      <c r="B962" t="s">
+        <v>415</v>
+      </c>
+      <c r="C962">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>130</v>
+      </c>
+      <c r="B963" t="s">
+        <v>416</v>
+      </c>
+      <c r="C963">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>130</v>
+      </c>
+      <c r="B964" t="s">
+        <v>417</v>
+      </c>
+      <c r="C964">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>130</v>
+      </c>
+      <c r="B965" t="s">
+        <v>418</v>
+      </c>
+      <c r="C965">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>130</v>
+      </c>
+      <c r="B966" t="s">
+        <v>419</v>
+      </c>
+      <c r="C966">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>130</v>
+      </c>
+      <c r="B967" t="s">
+        <v>420</v>
+      </c>
+      <c r="C967">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>130</v>
+      </c>
+      <c r="B968" t="s">
+        <v>421</v>
+      </c>
+      <c r="C968">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>130</v>
+      </c>
+      <c r="B969" t="s">
+        <v>422</v>
+      </c>
+      <c r="C969">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>130</v>
+      </c>
+      <c r="B970" t="s">
+        <v>423</v>
+      </c>
+      <c r="C970">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>130</v>
+      </c>
+      <c r="B971" t="s">
+        <v>424</v>
+      </c>
+      <c r="C971">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>130</v>
+      </c>
+      <c r="B972" t="s">
+        <v>425</v>
+      </c>
+      <c r="C972">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>130</v>
+      </c>
+      <c r="B973" t="s">
+        <v>426</v>
+      </c>
+      <c r="C973">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>130</v>
+      </c>
+      <c r="B974" t="s">
+        <v>427</v>
+      </c>
+      <c r="C974">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>130</v>
+      </c>
+      <c r="B975" t="s">
+        <v>428</v>
+      </c>
+      <c r="C975">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>130</v>
+      </c>
+      <c r="B976" t="s">
+        <v>429</v>
+      </c>
+      <c r="C976">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>130</v>
+      </c>
+      <c r="B977" t="s">
+        <v>430</v>
+      </c>
+      <c r="C977">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>130</v>
+      </c>
+      <c r="B978" t="s">
+        <v>431</v>
+      </c>
+      <c r="C978">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>130</v>
+      </c>
+      <c r="B979" t="s">
+        <v>432</v>
+      </c>
+      <c r="C979">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>130</v>
+      </c>
+      <c r="B980" t="s">
+        <v>433</v>
+      </c>
+      <c r="C980">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>130</v>
+      </c>
+      <c r="B981" t="s">
+        <v>434</v>
+      </c>
+      <c r="C981">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>130</v>
+      </c>
+      <c r="B982" t="s">
+        <v>435</v>
+      </c>
+      <c r="C982">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>130</v>
+      </c>
+      <c r="B983" t="s">
+        <v>436</v>
+      </c>
+      <c r="C983">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>130</v>
+      </c>
+      <c r="B984" t="s">
+        <v>437</v>
+      </c>
+      <c r="C984">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>130</v>
+      </c>
+      <c r="B985" t="s">
+        <v>438</v>
+      </c>
+      <c r="C985">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>130</v>
+      </c>
+      <c r="B986" t="s">
+        <v>439</v>
+      </c>
+      <c r="C986">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>130</v>
+      </c>
+      <c r="B987" t="s">
+        <v>440</v>
+      </c>
+      <c r="C987">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>130</v>
+      </c>
+      <c r="B988" t="s">
+        <v>441</v>
+      </c>
+      <c r="C988">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>130</v>
+      </c>
+      <c r="B989" t="s">
+        <v>442</v>
+      </c>
+      <c r="C989">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>130</v>
+      </c>
+      <c r="B990" t="s">
+        <v>443</v>
+      </c>
+      <c r="C990">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>130</v>
+      </c>
+      <c r="B991" t="s">
+        <v>444</v>
+      </c>
+      <c r="C991">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>130</v>
+      </c>
+      <c r="B992" t="s">
+        <v>445</v>
+      </c>
+      <c r="C992">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>130</v>
+      </c>
+      <c r="B993" t="s">
+        <v>446</v>
+      </c>
+      <c r="C993">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>130</v>
+      </c>
+      <c r="B994" t="s">
+        <v>447</v>
+      </c>
+      <c r="C994">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
